--- a/biology/Botanique/Merremia_tridentata/Merremia_tridentata.xlsx
+++ b/biology/Botanique/Merremia_tridentata/Merremia_tridentata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Merremia tridentata est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire des régions tropicales d'Afrique.
-c'est une plante herbacée vivace aux tiges allongées, présentant parfois des racines tubérisées. Elle est utilisée en médecine traditionnelle, notamment en Inde, pour soigner diverses affections telles que l'arthrite, les infections de la peau, l'inflammation, la fièvre, le diabète, la diarrhée, les troubles urinaires, et également utilisés pour améliorer la croissance des cheveux. Des flavonoïdes ont été isolés des parties aériennes de la plante, parmi lesquels la diosmétine, la lutéoline, la diosmétine-7-o-β-d-glucoside, la lutéoline-7-o-β-d-glucoside. La plante aurait des activités antidiabétiques, anti-inflammatoires, antiarthritiques, cicatrisantes, analgésiques et antimicrobiennes[2].
+c'est une plante herbacée vivace aux tiges allongées, présentant parfois des racines tubérisées. Elle est utilisée en médecine traditionnelle, notamment en Inde, pour soigner diverses affections telles que l'arthrite, les infections de la peau, l'inflammation, la fièvre, le diabète, la diarrhée, les troubles urinaires, et également utilisés pour améliorer la croissance des cheveux. Des flavonoïdes ont été isolés des parties aériennes de la plante, parmi lesquels la diosmétine, la lutéoline, la diosmétine-7-o-β-d-glucoside, la lutéoline-7-o-β-d-glucoside. La plante aurait des activités antidiabétiques, anti-inflammatoires, antiarthritiques, cicatrisantes, analgésiques et antimicrobiennes.
 </t>
         </is>
       </c>
@@ -512,19 +524,21 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (26 octobre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (26 octobre 2019) :
 Convolvulus oligodontus Baker
 Convolvulus tridentatus L.
 Evolvulus tridentatus (L.) L.
-Ipomoea angustifolia Jacq.[3]
+Ipomoea angustifolia Jacq.
 Ipomoea tridentata (L.) Roth
-Jacquemontia tridentata subsp. angustifolia (Jacq.) van Ooststr.[3]
+Jacquemontia tridentata subsp. angustifolia (Jacq.) van Ooststr.
 Merremia alatipes Dammer
 Merremia hastata Hallier f.
 Merremia tridentata subsp. angustifolia (Jacq.) Ooststr.
-Merremia tridentata (L.) Hallier f.[3]
+Merremia tridentata (L.) Hallier f.
 Xenostegia tridentata (L.) D.F. Austin &amp; Staples</t>
         </is>
       </c>
@@ -553,9 +567,11 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (26 octobre 2019)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (26 octobre 2019) :
 Merremia tridentata subsp. alatipes Merremia alatipes Dammer, 1895
 Merremia tridentata subsp. hastata Ooststr., 1939
 Merremia tridentata var. pubescens Rendle, 1905</t>
